--- a/Measurement_Results/TEM/0.8.xlsx
+++ b/Measurement_Results/TEM/0.8.xlsx
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2292,6 +2292,9 @@
         <v>48.773000000000003</v>
       </c>
       <c r="H88" s="2"/>
+      <c r="L88" s="2">
+        <v>46.149000000000001</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
@@ -2304,6 +2307,9 @@
         <v>46.835000000000001</v>
       </c>
       <c r="H89" s="2"/>
+      <c r="L89" s="2">
+        <v>48.558</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
@@ -2316,6 +2322,9 @@
         <v>50.039000000000001</v>
       </c>
       <c r="H90" s="2"/>
+      <c r="L90" s="2">
+        <v>38.225000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
@@ -2328,6 +2337,9 @@
         <v>53.037999999999997</v>
       </c>
       <c r="H91" s="2"/>
+      <c r="L91" s="2">
+        <v>51.453000000000003</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
@@ -2340,6 +2352,9 @@
         <v>54.262</v>
       </c>
       <c r="H92" s="2"/>
+      <c r="L92" s="2">
+        <v>58.796999999999997</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
@@ -2352,6 +2367,9 @@
         <v>53.682000000000002</v>
       </c>
       <c r="H93" s="2"/>
+      <c r="L93" s="2">
+        <v>43.970999999999997</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
@@ -2364,6 +2382,9 @@
         <v>50.466000000000001</v>
       </c>
       <c r="H94" s="2"/>
+      <c r="L94" s="2">
+        <v>54.991999999999997</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
@@ -2376,6 +2397,9 @@
         <v>45.506999999999998</v>
       </c>
       <c r="H95" s="2"/>
+      <c r="L95" s="2">
+        <v>40.575000000000003</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
@@ -2388,8 +2412,11 @@
         <v>50.539000000000001</v>
       </c>
       <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L96" s="2">
+        <v>41.781999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2400,8 +2427,11 @@
         <v>46.189</v>
       </c>
       <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L97" s="2">
+        <v>36.618000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2412,8 +2442,11 @@
         <v>52.198999999999998</v>
       </c>
       <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L98" s="2">
+        <v>40.665999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2424,8 +2457,11 @@
         <v>50.088000000000001</v>
       </c>
       <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L99" s="2">
+        <v>48.494999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2436,8 +2472,11 @@
         <v>39.966000000000001</v>
       </c>
       <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L100" s="2">
+        <v>54.734000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2448,8 +2487,11 @@
         <v>43.872999999999998</v>
       </c>
       <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L101" s="2">
+        <v>50.973999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2460,8 +2502,11 @@
         <v>54.98</v>
       </c>
       <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L102" s="2">
+        <v>55.722999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2472,8 +2517,11 @@
         <v>53.613</v>
       </c>
       <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L103" s="2">
+        <v>42.438000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2484,8 +2532,11 @@
         <v>42.075000000000003</v>
       </c>
       <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L104" s="2">
+        <v>54.756999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2494,8 +2545,11 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L105" s="2">
+        <v>43.984999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2506,8 +2560,11 @@
         <v>54.543999999999997</v>
       </c>
       <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L106" s="2">
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2518,8 +2575,11 @@
         <v>46.52</v>
       </c>
       <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L107" s="2">
+        <v>42.451999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2530,8 +2590,11 @@
         <v>51.07</v>
       </c>
       <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L108" s="2">
+        <v>54.148000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2542,14 +2605,1230 @@
         <v>53.499000000000002</v>
       </c>
       <c r="H109" s="2"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L109" s="2">
+        <v>43.732999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L110" s="2">
+        <v>53.061</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J111" s="1" t="e">
         <f>AVERAGE(A111:H111)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="L111" s="2">
+        <v>37.167000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L112" s="2">
+        <v>44.220999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L113" s="2">
+        <v>49.978000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L114" s="2">
+        <v>44.47</v>
+      </c>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L115" s="2">
+        <v>41.176000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L116" s="2">
+        <v>54.170999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L117" s="2">
+        <v>49.372999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L118" s="2">
+        <v>37.853999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L119" s="2">
+        <v>52.701999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L120" s="2">
+        <v>55.789000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L121" s="2">
+        <v>56.899000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L122" s="2">
+        <v>59.832000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L123" s="2">
+        <v>40.680999999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L124" s="2">
+        <v>46.860999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L125" s="2">
+        <v>37.134</v>
+      </c>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L126" s="2">
+        <v>52.058</v>
+      </c>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L127" s="2">
+        <v>38.844999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L128" s="2">
+        <v>46.808999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L129" s="2">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L130" s="2">
+        <v>50.805</v>
+      </c>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L131" s="2">
+        <v>53.944000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L132" s="2">
+        <v>58.179000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L133" s="2">
+        <v>47.186999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L134" s="2">
+        <v>42.725999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L135" s="2">
+        <v>54.722999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L136" s="2">
+        <v>46.835000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L137" s="2">
+        <v>52.058</v>
+      </c>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L138" s="2">
+        <v>45.869</v>
+      </c>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L139" s="2">
+        <v>47.923000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L140" s="2">
+        <v>51.927999999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L141" s="2">
+        <v>47.408000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L142" s="2">
+        <v>58.744999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L143" s="2">
+        <v>53.085000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L144" s="2">
+        <v>52.021999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L145" s="2">
+        <v>52.969000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L146" s="2">
+        <v>48.253999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L147" s="2">
+        <v>40.073</v>
+      </c>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L148" s="2">
+        <v>57.179000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L149" s="2">
+        <v>50.064</v>
+      </c>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L150" s="2">
+        <v>53.073</v>
+      </c>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L151" s="2">
+        <v>47.408000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L152" s="2">
+        <v>51.822000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L153" s="2">
+        <v>50.173999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L154" s="2">
+        <v>52.597000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L155" s="2">
+        <v>55.259</v>
+      </c>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L156" s="2">
+        <v>59.883000000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L157" s="2">
+        <v>37.067999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L158" s="2">
+        <v>54.610999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L159" s="2">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L160" s="2">
+        <v>52.98</v>
+      </c>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L161" s="2">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L162" s="2">
+        <v>48.773000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L163" s="2">
+        <v>50.308</v>
+      </c>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L164" s="2">
+        <v>55.469000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L165" s="2">
+        <v>52.585000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L166" s="2">
+        <v>46.215000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L167" s="2">
+        <v>44.963999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L168" s="2">
+        <v>53.164999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L169" s="2">
+        <v>42.997999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L170" s="2">
+        <v>58.241999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L171" s="2">
+        <v>39.981999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L172" s="2">
+        <v>54.228000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L173" s="2">
+        <v>48.697000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L174" s="2">
+        <v>60.22</v>
+      </c>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L175" s="2">
+        <v>51.81</v>
+      </c>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L176" s="2">
+        <v>55.347000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L177" s="2">
+        <v>50.002000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L178" s="2">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L179" s="2">
+        <v>43.774999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L180" s="2">
+        <v>49.904000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L181" s="2">
+        <v>38.972000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L182" s="2">
+        <v>50.369</v>
+      </c>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L183" s="2">
+        <v>51.512999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L184" s="2">
+        <v>45.908999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L185" s="2">
+        <v>40.073</v>
+      </c>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L186" s="2">
+        <v>40.408999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L187" s="2">
+        <v>54.756999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L188" s="2">
+        <v>55.136000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L189" s="2">
+        <v>52.515000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L190" s="2">
+        <v>48.037999999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L191" s="2">
+        <v>45.466000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L192" s="2">
+        <v>56.216000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L193" s="2">
+        <v>51.869</v>
+      </c>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L194" s="2">
+        <v>51.595999999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L195" s="2">
+        <v>52.945999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L196" s="2">
+        <v>45.613999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L197" s="2">
+        <v>51.631999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L198" s="2">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L199" s="2">
+        <v>53.978000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L200" s="2">
+        <v>50.454000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L201" s="2">
+        <v>48.267000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L202" s="2">
+        <v>46.52</v>
+      </c>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L203" s="2">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L204" s="2">
+        <v>38.369</v>
+      </c>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L205" s="2">
+        <v>39.018999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L206" s="2">
+        <v>53.292000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L207" s="2">
+        <v>53.920999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L208" s="2">
+        <v>51.429000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L209" s="2">
+        <v>44.11</v>
+      </c>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L210" s="2">
+        <v>55.213999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L211" s="2">
+        <v>50.417999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L212" s="2">
+        <v>49.447000000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L213" s="2">
+        <v>52.246000000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L214" s="2">
+        <v>44.484000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L215" s="2">
+        <v>50.938000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L216" s="2">
+        <v>46.991999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L217" s="2">
+        <v>53.99</v>
+      </c>
+    </row>
+    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L218" s="2">
+        <v>53.073</v>
+      </c>
+    </row>
+    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L219" s="2">
+        <v>47.665999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L220" s="2">
+        <v>45.546999999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L221" s="2">
+        <v>39.316000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L222" s="2">
+        <v>49.682000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L223" s="2">
+        <v>46.466999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L224" s="2">
+        <v>47.408000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L225" s="2">
+        <v>50.393000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L226" s="2">
+        <v>55.613</v>
+      </c>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L227" s="2">
+        <v>48.76</v>
+      </c>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L228" s="2">
+        <v>53.35</v>
+      </c>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L229" s="2">
+        <v>42.206000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L230" s="2">
+        <v>55.734000000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L231" s="2">
+        <v>54.283999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L232" s="2">
+        <v>50.926000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L233" s="2">
+        <v>59.213000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L234" s="2">
+        <v>53.210999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L235" s="2">
+        <v>54.453000000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L236" s="2">
+        <v>53.314999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L237" s="2">
+        <v>49.36</v>
+      </c>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L238" s="2">
+        <v>51.238</v>
+      </c>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L239" s="2">
+        <v>56.445</v>
+      </c>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L240" s="2">
+        <v>40.134999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L241" s="2">
+        <v>51.856999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L242" s="2">
+        <v>49.447000000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L243" s="2">
+        <v>56.271000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L244" s="2">
+        <v>42.595999999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L245" s="2">
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L246" s="2">
+        <v>52.725000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L247" s="2">
+        <v>54.182000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L248" s="2">
+        <v>51.405999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L249" s="2">
+        <v>44.622</v>
+      </c>
+    </row>
+    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L250" s="2">
+        <v>53.591000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L251" s="2">
+        <v>49.866999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L252" s="2">
+        <v>47.33</v>
+      </c>
+    </row>
+    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L253" s="2">
+        <v>49.744</v>
+      </c>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L254" s="2">
+        <v>42.292999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L255" s="2">
+        <v>56.542000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L256" s="2">
+        <v>51.667000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L257" s="2">
+        <v>54.869</v>
+      </c>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L258" s="2">
+        <v>49.570999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L259" s="2">
+        <v>53.234999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L260" s="2">
+        <v>52.268999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L261" s="2">
+        <v>49.347999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L262" s="2">
+        <v>48.634</v>
+      </c>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L263" s="2">
+        <v>55.369</v>
+      </c>
+    </row>
+    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L264" s="2">
+        <v>55.634999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L265" s="2">
+        <v>44.11</v>
+      </c>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L266" s="2">
+        <v>44.497999999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L267" s="2">
+        <v>53.280999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L268" s="2">
+        <v>46.953000000000003</v>
+      </c>
+    </row>
+    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L269" s="2">
+        <v>48.177999999999997</v>
+      </c>
+    </row>
+    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L270" s="2">
+        <v>51.465000000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L271" s="2">
+        <v>51.417999999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L272" s="2">
+        <v>51.738999999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L273" s="2">
+        <v>41.929000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L274" s="2">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L275" s="2">
+        <v>52.55</v>
+      </c>
+    </row>
+    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L276" s="2">
+        <v>55.213999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L277" s="2">
+        <v>45.56</v>
+      </c>
+    </row>
+    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L278" s="2">
+        <v>48.823</v>
+      </c>
+    </row>
+    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L279" s="2">
+        <v>39.332000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L280" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L281" s="2">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L282" s="2">
+        <v>53.338000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L283" s="2">
+        <v>48.773000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L284" s="2">
+        <v>46.835000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L285" s="2">
+        <v>50.039000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L286" s="2">
+        <v>53.037999999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L287" s="2">
+        <v>54.262</v>
+      </c>
+    </row>
+    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L288" s="2">
+        <v>53.682000000000002</v>
+      </c>
+    </row>
+    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L289" s="2">
+        <v>50.466000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L290" s="2">
+        <v>45.506999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L291" s="2">
+        <v>50.539000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L292" s="2">
+        <v>46.189</v>
+      </c>
+    </row>
+    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L293" s="2">
+        <v>52.198999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L294" s="2">
+        <v>50.088000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L295" s="2">
+        <v>39.966000000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L296" s="2">
+        <v>43.872999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L297" s="2">
+        <v>54.98</v>
+      </c>
+    </row>
+    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L298" s="2">
+        <v>53.613</v>
+      </c>
+    </row>
+    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L299" s="2">
+        <v>42.075000000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L300" s="2">
+        <v>54.543999999999997</v>
+      </c>
+    </row>
+    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L301" s="2">
+        <v>46.52</v>
+      </c>
+    </row>
+    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L302" s="2">
+        <v>51.07</v>
+      </c>
+    </row>
+    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L303" s="2">
+        <v>53.499000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L304" s="2">
+        <v>49.595999999999997</v>
+      </c>
+    </row>
+    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L305" s="2">
+        <v>53.533000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L306" s="2">
+        <v>56.64</v>
+      </c>
+    </row>
+    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L307" s="2">
+        <v>61.44</v>
+      </c>
+    </row>
+    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L308" s="2">
+        <v>43.253999999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L309" s="2">
+        <v>48.671999999999997</v>
+      </c>
+    </row>
+    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L310" s="2">
+        <v>51.19</v>
+      </c>
+    </row>
+    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L311" s="2">
+        <v>52.539000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L312" s="2">
+        <v>57.115000000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L313" s="2">
+        <v>47.679000000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L314" s="2">
+        <v>49.323</v>
+      </c>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L315" s="2">
+        <v>53.773000000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L316" s="2">
+        <v>45.921999999999997</v>
+      </c>
+    </row>
+    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L317" s="2">
+        <v>45.533000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L318" s="2">
+        <v>57.093000000000004</v>
+      </c>
+    </row>
+    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L319" s="2">
+        <v>49.36</v>
+      </c>
+    </row>
+    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L320" s="2">
+        <v>49.298000000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L321" s="2">
+        <v>52.469000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L322" s="2">
+        <v>52.899000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L323" s="2">
+        <v>52.07</v>
+      </c>
+    </row>
+    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L324" s="2">
+        <v>48.972999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L325" s="2">
+        <v>52.198999999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L326" s="2">
+        <v>50.914000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L327" s="2">
+        <v>56.03</v>
+      </c>
+    </row>
+    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L328" s="2">
+        <v>54.98</v>
+      </c>
+    </row>
+    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L329" s="2">
+        <v>56.694000000000003</v>
+      </c>
+    </row>
+    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L330" s="2">
+        <v>51.465000000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L331" s="2">
+        <v>47.973999999999997</v>
+      </c>
+    </row>
+    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L332" s="2">
+        <v>49.707000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L333" s="2">
+        <v>47.497999999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L334" s="2">
+        <v>47.768999999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L335" s="2">
+        <v>53.027000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L336" s="2">
+        <v>51.856999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L337" s="2">
+        <v>53.061</v>
+      </c>
+    </row>
+    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L338" s="2">
+        <v>48.872999999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L339" s="2">
+        <v>52.69</v>
+      </c>
+    </row>
+    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L340" s="2">
+        <v>50.503</v>
+      </c>
+    </row>
+    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L341" s="2">
+        <v>52.421999999999997</v>
+      </c>
+    </row>
+    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L342" s="2">
+        <v>47.122</v>
+      </c>
+    </row>
+    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L343" s="2">
+        <v>47.793999999999997</v>
+      </c>
+    </row>
+    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L344" s="2">
+        <v>53.808</v>
+      </c>
+    </row>
+    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L345" s="2">
+        <v>49.941000000000003</v>
+      </c>
+    </row>
+    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L346" s="2">
+        <v>54.465000000000003</v>
+      </c>
+    </row>
+    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L347" s="2">
+        <v>53.579000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L348" s="2">
+        <v>56.271000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L349" s="2">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L350" s="2">
+        <v>50.002000000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L351" s="2">
+        <v>53.015000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L352" s="2">
+        <v>44.649000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement_Results/TEM/0.8.xlsx
+++ b/Measurement_Results/TEM/0.8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="28720" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:L458"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,20 +503,20 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <f>AVERAGE(A46:A458)</f>
-        <v>49.425617433414068</v>
+        <f>AVERAGE(A2:A458)</f>
+        <v>46.746553610503327</v>
       </c>
       <c r="F5" s="2">
-        <f>STDEV(A46:A458)</f>
-        <v>5.3618623506994911</v>
+        <f>STDEV(A2:A458)</f>
+        <v>9.9720486487005342</v>
       </c>
       <c r="G5" s="2">
         <f>F5/SQRT(H5)</f>
-        <v>0.26383999786652867</v>
+        <v>0.46647276065998378</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNT(A46:A458)</f>
-        <v>413</v>
+        <f>COUNT(A2:A458)</f>
+        <v>457</v>
       </c>
       <c r="L5" s="2"/>
     </row>
